--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1113958.56148048</v>
+        <v>1111522.924556773</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673408</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11083963.82970492</v>
+        <v>11083963.82970493</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.7971664995892</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>318.4070179429941</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +820,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>148.8403989153105</v>
       </c>
       <c r="T4" t="n">
-        <v>171.1995283384038</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>299.0513903014167</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699578</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>84.69473660442733</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>42.01201317445349</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>59.91175829592162</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>56.22992883261846</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>121.7519142066488</v>
+        <v>71.67037196991615</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>1.812436899955757</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>123.1850263018324</v>
+        <v>289.568716680677</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203237933</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>201.7640893793778</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458112</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.753166794034783</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468617</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009634</v>
       </c>
       <c r="D13" t="n">
-        <v>35.86187249378771</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.0082414914629</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.922657007676</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>218.6059168754545</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4423155261898</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>319.4395745411795</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>86.27179222793362</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>34.89507300046169</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695092</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>147.8972104906209</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428034</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634761</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>86.8894339776989</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710029</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788174579</v>
+        <v>54.2675832342668</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881259</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.91555826189018</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695445</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654634</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.6920487814942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722598</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>30.40549967255443</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.51334065743</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>36.43062059490467</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>283.1932821152809</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>212.8988206105698</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>80.67842139643663</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>55.52079624060374</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259409</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2635.871647259409</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.7942044041907</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8580214762839</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762839</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938907</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959804</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959804</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4513,25 +4513,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1687.120253557827</v>
       </c>
       <c r="T4" t="n">
-        <v>1472.849390169408</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="U4" t="n">
-        <v>1472.849390169408</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="V4" t="n">
-        <v>1472.849390169408</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="W4" t="n">
-        <v>1183.432220132448</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X4" t="n">
-        <v>955.4426692344305</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.4426692344305</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1236.639481552898</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1236.639481552898</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2382.341170533243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>423.5412774992673</v>
+        <v>152.0623554265544</v>
       </c>
       <c r="C7" t="n">
-        <v>423.5412774992673</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>423.5412774992673</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>423.5412774992673</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>276.6513300013569</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9484933760758</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1326.594608541189</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1071.910120335302</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>782.4929502983416</v>
       </c>
       <c r="X7" t="n">
-        <v>644.3338566427974</v>
+        <v>554.5033994003243</v>
       </c>
       <c r="Y7" t="n">
-        <v>423.5412774992673</v>
+        <v>333.7108202567941</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3265.088894037532</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3265.088894037532</v>
       </c>
       <c r="U8" t="n">
-        <v>3062.830166081658</v>
+        <v>3011.558417311368</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.767278738087</v>
+        <v>2680.495529967797</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158128</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.780563451991</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1804.312816566626</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1549.628328360739</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1260.211158323778</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1032.221607425761</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>811.4290282822308</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2141.51820432686</v>
+        <v>1965.286898811882</v>
       </c>
       <c r="C11" t="n">
-        <v>1772.555687386448</v>
+        <v>1963.456154468492</v>
       </c>
       <c r="D11" t="n">
-        <v>1414.289988779697</v>
+        <v>1605.190455861742</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.501736181453</v>
+        <v>1219.402203263498</v>
       </c>
       <c r="F11" t="n">
-        <v>617.5158313918455</v>
+        <v>808.41629847389</v>
       </c>
       <c r="G11" t="n">
-        <v>202.9403857214923</v>
+        <v>393.8408528035372</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469189</v>
+        <v>101.3471995907322</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469243</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386857</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.5155104420376</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301235</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878124</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765443</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687124</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856309</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882269</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234594</v>
+        <v>3925.553311234621</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455664</v>
+        <v>3925.553311234621</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971443</v>
+        <v>3721.751200750401</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.786021971443</v>
+        <v>3468.260484383009</v>
       </c>
       <c r="V11" t="n">
-        <v>3291.723134627873</v>
+        <v>3468.260484383009</v>
       </c>
       <c r="W11" t="n">
-        <v>3291.723134627873</v>
+        <v>3115.491829112895</v>
       </c>
       <c r="X11" t="n">
-        <v>2918.257376366793</v>
+        <v>2742.026070851815</v>
       </c>
       <c r="Y11" t="n">
-        <v>2528.118044390982</v>
+        <v>2351.886738876004</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503059</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469243</v>
       </c>
       <c r="J12" t="n">
-        <v>196.812062379213</v>
+        <v>196.8120623792147</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376506</v>
+        <v>477.1621322376542</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649603</v>
+        <v>900.4499396649667</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.76371390885</v>
+        <v>1413.763713908859</v>
       </c>
       <c r="N12" t="n">
-        <v>1709.609432923824</v>
+        <v>1955.07202125993</v>
       </c>
       <c r="O12" t="n">
-        <v>2182.580985789574</v>
+        <v>2198.621366333044</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.849288629729</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
-        <v>2542.849288629729</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826874</v>
+        <v>203.8650582458677</v>
       </c>
       <c r="C13" t="n">
-        <v>114.7351798547804</v>
+        <v>78.51106622469243</v>
       </c>
       <c r="D13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469243</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469243</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469243</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469243</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469243</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469243</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600414</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.455047345773</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888959</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779227</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784543001</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715858</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082532</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551117</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014285</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906988</v>
+        <v>1888.302075370168</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457034</v>
+        <v>1667.488017920214</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1378.397311360502</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1123.712823154616</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544745</v>
+        <v>834.2956531176549</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564572</v>
+        <v>606.3061022196375</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.319827612927</v>
+        <v>385.5135230761074</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
         <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128753</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060311</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>106.3138404733492</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>106.3138404733492</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254767</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124813</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220724</v>
+        <v>679.6040206802894</v>
       </c>
       <c r="C16" t="n">
-        <v>494.0589900220723</v>
+        <v>679.6040206802894</v>
       </c>
       <c r="D16" t="n">
-        <v>406.9157655494121</v>
+        <v>529.4873812679537</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608053</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861978</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107598</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.66745682198</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136707</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.90675493082</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958422</v>
+        <v>896.5000339958438</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.707454852312</v>
+        <v>861.2524855105291</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398589</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5580,31 +5580,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756263</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468465</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589156</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400694</v>
+        <v>956.9553291057246</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121625</v>
+        <v>788.0191461778177</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121625</v>
+        <v>637.9025067654819</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121625</v>
+        <v>489.9894131830888</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121626</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270429</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580259</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487565</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510506</v>
+        <v>2160.315914855602</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854704</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648817</v>
+        <v>1616.556199993913</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611857</v>
+        <v>1327.139029956952</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138393</v>
+        <v>1327.139029956952</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703091</v>
+        <v>1106.346450813422</v>
       </c>
     </row>
     <row r="20">
@@ -5741,61 +5741,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398589</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492573</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474778</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466569</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122998</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615992</v>
       </c>
     </row>
     <row r="21">
@@ -5817,28 +5817,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245726</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>776.1751066403309</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400703</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121634</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121634</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121634</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121635</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270441</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557031</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.77602655187</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398589</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492573</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474779</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466569</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612122998</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615992</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273889</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188002</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908933</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908933</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908933</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179769</v>
+        <v>826.1405381797739</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2392.147342939585</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166296</v>
+        <v>2392.147342939585</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>2172.545877962526</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327548</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290587</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925701</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490399</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6291,31 +6291,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527389</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876677</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597608</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474249</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650319</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121644</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270448</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797739</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614375</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179074</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,43 +6470,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327631</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048563</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.78619868161</v>
+        <v>1394.18473370455</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>945.4026036630029</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>878.3568999154062</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y34" t="n">
-        <v>869.6905094135296</v>
+        <v>878.3568999154062</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>297.8113689946115</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>130.6152697094913</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,16 +7096,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279802</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2049.058935487114</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925215</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122183</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>149.8982754122183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>149.8982754122183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>363.4604548710518</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>166.3836903788448</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114046</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899766445</v>
       </c>
       <c r="D13" t="n">
-        <v>112.7536005244247</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>142.7927049400677</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>89.71507747034005</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.29152613729082</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>62.34368079027874</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>183.6895803516331</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.473861281439895e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>31.93476969131635</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194355</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4.490630090003833e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>138.8202214113383</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.661160346586257e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194711</v>
+        <v>12.10766347585494</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.701199264265597e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610411</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>110.003342051666</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.89260457060055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>136.8413214260734</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856255</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.0713126946647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>103.8640922513192</v>
+        <v>57.22910392194171</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>3.329716221310093</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.506629716718493</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>205.8445769401544</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>25.74504007796168</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878849.7082487454</v>
+        <v>878849.7082487483</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>955957.5549399451</v>
+        <v>955957.5549399453</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961206.0779010159</v>
+        <v>961206.0779010155</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961206.0779010159</v>
+        <v>961206.0779010156</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>961206.0779010158</v>
+        <v>961206.0779010156</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010156</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>961206.0779010162</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876635</v>
+        <v>423807.2415876649</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918677</v>
+        <v>461540.8686918679</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217533</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217533</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217533</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217534</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185161</v>
+        <v>143114.1392185234</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051373</v>
+        <v>166521.3471051312</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557898</v>
+        <v>11167.23623557772</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115347</v>
+        <v>37377.32855115536</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848892</v>
+        <v>43782.40655848739</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.29797722431</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="E4" t="n">
         <v>13507.6871545367</v>
@@ -26442,22 +26442,22 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214715</v>
+        <v>86093.72216214769</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1057373.511500217</v>
       </c>
       <c r="C6" t="n">
-        <v>271371.2342273756</v>
+        <v>271371.2342273758</v>
       </c>
       <c r="D6" t="n">
         <v>271371.2342273755</v>
       </c>
       <c r="E6" t="n">
-        <v>181091.6930524635</v>
+        <v>180881.7288086124</v>
       </c>
       <c r="F6" t="n">
-        <v>181277.1175822746</v>
+        <v>181231.2125867152</v>
       </c>
       <c r="G6" t="n">
-        <v>338212.7206504248</v>
+        <v>338177.9827249902</v>
       </c>
       <c r="H6" t="n">
-        <v>349379.9568860038</v>
+        <v>349345.2189605678</v>
       </c>
       <c r="I6" t="n">
-        <v>349379.9568860037</v>
+        <v>349345.2189605677</v>
       </c>
       <c r="J6" t="n">
-        <v>131848.7544887263</v>
+        <v>131814.0165632906</v>
       </c>
       <c r="K6" t="n">
-        <v>349379.9568860037</v>
+        <v>349345.2189605678</v>
       </c>
       <c r="L6" t="n">
-        <v>349379.9568860039</v>
+        <v>349345.2189605678</v>
       </c>
       <c r="M6" t="n">
-        <v>312002.6283348502</v>
+        <v>311967.8904094128</v>
       </c>
       <c r="N6" t="n">
-        <v>305597.5503275148</v>
+        <v>305562.8124020808</v>
       </c>
       <c r="O6" t="n">
-        <v>346356.6589087792</v>
+        <v>346321.9209833439</v>
       </c>
       <c r="P6" t="n">
-        <v>349379.9568860038</v>
+        <v>349345.2189605682</v>
       </c>
     </row>
   </sheetData>
@@ -26741,28 +26741,28 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494562</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086486</v>
+        <v>981.3883278086553</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,26 +26960,26 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>122.3935669012642</v>
+      </c>
+      <c r="F3" t="n">
+        <v>145.8707812218238</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.934451625287011</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>122.3935669012578</v>
-      </c>
-      <c r="F3" t="n">
-        <v>145.8707812218292</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.934451625288148</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063557</v>
+        <v>149.9868724063629</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173517</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364029</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063557</v>
+        <v>149.9868724063633</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173517</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364029</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063557</v>
+        <v>149.9868724063629</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173517</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364029</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.93667516389138</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>67.83092071305953</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>40.92862641613146</v>
       </c>
       <c r="T4" t="n">
-        <v>48.34942093776544</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>82.87897977084509</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>82.5520844942005</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>102.7430017398673</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>49.27600349225425</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>194.7652431262835</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>164.4599239989641</v>
+        <v>214.5414662356967</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.998551739080243e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.508207294397318e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-5.002220859751105e-12</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.461131202643</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485672</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543509016</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380266</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.59371353072</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726086</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.003254221701</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.6642913857468</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.509834189843</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294448</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.7501494615171</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895613</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356996</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951049</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475354</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188538</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969435</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191534</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596522</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783042</v>
+        <v>246.3335823783053</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202575</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>566.1178216256443</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>660.6327957845363</v>
       </c>
       <c r="N12" t="n">
-        <v>430.1757716944187</v>
+        <v>678.1177801147173</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>388.6056839122363</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>497.8817840205495</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533297</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697611</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190419</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236095</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737184</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691824</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836919</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619754</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509191</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263726</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973111</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050075</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761909</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916789</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570659</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.0939410292963</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826951</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765144</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>150.4305144013752</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634843</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135337</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806723</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162555</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175669</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159419</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460021</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669218</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043723</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651526</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659447</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521098</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473069</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862116</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071779</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565781</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742435</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121568</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869269</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392042</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417312</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532763</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099321</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467221</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634843</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135337</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806723</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162555</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175669</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159419</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460021</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669218</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043723</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651526</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659447</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521098</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>326.7634969305214</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473069</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862116</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071779</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437238</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742435</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121568</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869269</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392042</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417312</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532763</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099321</v>
       </c>
       <c r="U22" t="n">
         <v>0.1345549672467221</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,43 +32856,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,43 +33093,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,10 +33524,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597634</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040337</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.7799124276281</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517137</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584741</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932521</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077581</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.5171537062476</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.9284889151118</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156752</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116375</v>
+        <v>119.4959557116386</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458985</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>427.5634418457701</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>518.498761862518</v>
       </c>
       <c r="N12" t="n">
-        <v>298.8340596110854</v>
+        <v>546.7760680313841</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>246.0094394677919</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>363.9073766062193</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936573</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701915</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360925</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112353</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882132</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765397</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190472</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410844</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998449</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>12.58907542701622</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317114</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462683</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902942</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193509</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243154</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924723</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674327</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238447</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121337</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096347</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191294</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010448</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060451</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066247</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317114</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462683</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902942</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193509</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243154</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924723</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>188.9220579561624</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674327</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238447</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992794</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096347</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010448</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060451</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066247</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191264</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
